--- a/updated_kids_list.xlsx
+++ b/updated_kids_list.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -514,26 +521,16 @@
           <t>Adam El Mansouri</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -544,18 +541,6 @@
           <t>Aya El Mansouri</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -566,30 +551,21 @@
           <t>Yassine Bennani</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -600,26 +576,16 @@
           <t>Lina Bennani</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -630,26 +596,16 @@
           <t>Hamza Zahiri</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -660,22 +616,11 @@
           <t>Salma Zahiri</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -686,22 +631,11 @@
           <t>Ines Rifai</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -712,18 +646,6 @@
           <t>Rayan Rifai</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -734,26 +656,16 @@
           <t>Sara Amrani</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -764,22 +676,11 @@
           <t>Mehdi Amrani</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -790,26 +691,16 @@
           <t>Anas Ouahbi</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -820,26 +711,16 @@
           <t>Sofia Ouahbi</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -850,22 +731,11 @@
           <t>Othmane Slaoui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -876,18 +746,6 @@
           <t>Malak Slaoui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -898,22 +756,11 @@
           <t>Reda El Idrissi</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -924,22 +771,11 @@
           <t>Ines El Idrissi</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -950,22 +786,11 @@
           <t>Taha Hakimi</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -976,18 +801,6 @@
           <t>Nour Hakimi</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -998,26 +811,16 @@
           <t>Khalid Bouazizi</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1028,22 +831,11 @@
           <t>Farah Bouazizi</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1054,26 +846,16 @@
           <t>Samir Chafai</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1084,22 +866,11 @@
           <t>Dounia Chafai</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1110,26 +881,16 @@
           <t>Rayan Karti</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1140,22 +901,11 @@
           <t>Zineb Karti</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1166,22 +916,11 @@
           <t>Omar Ould</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1192,18 +931,6 @@
           <t>Nadia Ould</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1214,22 +941,11 @@
           <t>Kenza Tazi</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1240,18 +956,6 @@
           <t>Ayoub Tazi</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1262,22 +966,11 @@
           <t>Sara Mouline</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1288,18 +981,6 @@
           <t>Youssef Mouline</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
